--- a/이벤트DATA_TW R2M.xlsx
+++ b/이벤트DATA_TW R2M.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1331" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56B8EDC-51BF-4830-9B45-B9E2DF5D5565}"/>
+  <xr:revisionPtr revIDLastSave="1383" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1BBB971-A274-44D1-9EF5-C595BBE7A596}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
-    <sheet name="230912 업데이트" sheetId="12" r:id="rId1"/>
-    <sheet name="230816 업데이트" sheetId="11" r:id="rId2"/>
-    <sheet name="230718 업데이트" sheetId="10" r:id="rId3"/>
-    <sheet name="230613 업데이트" sheetId="8" r:id="rId4"/>
-    <sheet name="230516 업데이트" sheetId="6" r:id="rId5"/>
-    <sheet name="230411 업데이트" sheetId="3" r:id="rId6"/>
-    <sheet name="사용법" sheetId="5" r:id="rId7"/>
+    <sheet name="231017 업데이트" sheetId="13" r:id="rId1"/>
+    <sheet name="230912 업데이트" sheetId="12" r:id="rId2"/>
+    <sheet name="230816 업데이트" sheetId="11" r:id="rId3"/>
+    <sheet name="230718 업데이트" sheetId="10" r:id="rId4"/>
+    <sheet name="230613 업데이트" sheetId="8" r:id="rId5"/>
+    <sheet name="230516 업데이트" sheetId="6" r:id="rId6"/>
+    <sheet name="230411 업데이트" sheetId="3" r:id="rId7"/>
+    <sheet name="사용법" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'230411 업데이트'!$B$1:$W$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230516 업데이트'!$B$1:$W$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230613 업데이트'!$A$1:$X$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230718 업데이트'!$A$1:$X$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230816 업데이트'!$A$1:$X$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'230912 업데이트'!$A$1:$X$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">사용법!$H$1:$Y$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'230411 업데이트'!$B$1:$W$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'230516 업데이트'!$B$1:$W$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230613 업데이트'!$A$1:$X$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230718 업데이트'!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230816 업데이트'!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230912 업데이트'!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'231017 업데이트'!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">사용법!$H$1:$Y$48</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="468">
   <si>
     <t>최종수정일</t>
   </si>
@@ -129,18 +131,297 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>이름 모를 영웅의 영혼을 찾아라 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>계정당 1회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체서버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 지원 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>상급 아드레날린 증폭 포션</t>
+  </si>
+  <si>
+    <t>상급 회복의 마법 주문서</t>
+  </si>
+  <si>
+    <t>상급 전투의 마법 주문서</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[20%]</t>
+  </si>
+  <si>
+    <t>풍등[이벤트]</t>
+  </si>
+  <si>
+    <t>이름 모를 영웅의 영혼[이벤트]</t>
+  </si>
+  <si>
+    <t>일반 포인트 충전석 상자</t>
+  </si>
+  <si>
+    <t>상급 매터리얼 상자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 서번트 뽑기권[이벤트] </t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
+  </si>
+  <si>
+    <t>빛나는 유피테르 사냥 계약서[1시간][이벤트]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르 성장 계약서[1시간][이벤트]</t>
+  </si>
+  <si>
+    <t>희귀 서번트 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>희귀 변신 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째 중추절 맞이 미션 이벤트</t>
+  </si>
+  <si>
+    <t>계정당 1회</t>
+  </si>
+  <si>
+    <t>모든 미션 완료</t>
+  </si>
+  <si>
+    <t>변신 합성 30회</t>
+  </si>
+  <si>
+    <t>행복한 추석 상자 1[이벤트]</t>
+  </si>
+  <si>
+    <t>서번트 합성 30회</t>
+  </si>
+  <si>
+    <t>행복한 추석 상자 2[이벤트]</t>
+  </si>
+  <si>
+    <t>아무 마물 6,000마리 처치</t>
+  </si>
+  <si>
+    <t>행복한 추석 상자 3[이벤트]</t>
+  </si>
+  <si>
+    <t>시간의 모래 60회 사용</t>
+  </si>
+  <si>
+    <t>행복한 추석 상자 4[이벤트]</t>
+  </si>
+  <si>
+    <t>골드 20,230,929 소모</t>
+  </si>
+  <si>
+    <t>행복한 추석 상자 5[이벤트]</t>
+  </si>
+  <si>
+    <t>일일 미션 90회 완료</t>
+  </si>
+  <si>
+    <t>행복한 추석 상자 6[이벤트]</t>
+  </si>
+  <si>
+    <t>이름 모를 영웅의 영혼을 찾아라 미션 이벤트</t>
+  </si>
+  <si>
+    <t>일일 미션 50회 완료</t>
+  </si>
+  <si>
+    <t>변신 150회 획득</t>
+  </si>
+  <si>
+    <t>길드 누적 공헌도 1,000,000 달성</t>
+  </si>
+  <si>
+    <t>시간의 모래 100개 사용</t>
+  </si>
+  <si>
+    <t>아무 몬스터 2,000,000마리 처치</t>
+  </si>
+  <si>
+    <t>주간 미션 60회 완료</t>
+  </si>
+  <si>
+    <t>도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시즌1]관우의 고귀한 영웅의 영혼</t>
+  </si>
+  <si>
+    <t>고귀한 영웅의 영혼 (1개)(5000131)</t>
+  </si>
+  <si>
+    <t>힘</t>
+  </si>
+  <si>
+    <t>민첩</t>
+  </si>
+  <si>
+    <t>지능</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(근접)</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(원거리)</t>
+  </si>
+  <si>
+    <t>마법 피해 감소</t>
+  </si>
+  <si>
+    <t>최대 소지 무게</t>
+  </si>
+  <si>
+    <t>드랍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째 중추절 맞이 드랍 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 맵(기네아 제외)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍등[이벤트]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째 중추절 맞이 제작 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보름달 매터리얼 상자[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>풍등[이벤트] 929개</t>
+  </si>
+  <si>
+    <t>월병[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>풍등[이벤트] 90개</t>
+  </si>
+  <si>
+    <t>계정당 9회</t>
+  </si>
+  <si>
+    <t>특별한 모둠 꼬치구이[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>풍등[이벤트] 29개</t>
+  </si>
+  <si>
+    <t>계정당 10회</t>
+  </si>
+  <si>
+    <t>슬롯 강화 주문서 1개</t>
+  </si>
+  <si>
+    <t>풍등[이벤트] 1929개</t>
+  </si>
+  <si>
+    <t>장비 각인석[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>풍등[이벤트] 99개</t>
+  </si>
+  <si>
+    <t>계정당 3회</t>
+  </si>
+  <si>
+    <t>봉인된 영혼석[희귀] 1개</t>
+  </si>
+  <si>
+    <t>상급 전투의 마법 주문서 1개</t>
+  </si>
+  <si>
+    <t>상급 회복의 마법 주문서 1개</t>
+  </si>
+  <si>
+    <t>이름모를 영웅의 영혼 제작 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고귀한 영웅의 영혼 1개</t>
+  </si>
+  <si>
+    <t>이름 모를 영웅의 영혼[이벤트] 50개</t>
+  </si>
+  <si>
+    <t>희귀~영웅 변신 뽑기권[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>이름 모를 영웅의 영혼[이벤트] 5개</t>
+  </si>
+  <si>
+    <t>계정당 4회</t>
+  </si>
+  <si>
+    <t>희귀~영웅 서번트 뽑기권[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>최상급 변신 뽑기권[11회] 1개</t>
+  </si>
+  <si>
+    <t>이름 모를 영웅의 영혼[이벤트] 2개</t>
+  </si>
+  <si>
+    <t>계정당 5회</t>
+  </si>
+  <si>
+    <t>최상급 서번트 뽑기권[11회] 1개</t>
+  </si>
+  <si>
+    <t>최상급 매터리얼 상자 1개</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르의 계약서[2시간] 1개</t>
+  </si>
+  <si>
+    <t>이름 모를 영웅의 영혼[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>콜포트의 축복[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>특별한 비약 상자[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>상급 아드레날린 증폭 포션 1개</t>
+  </si>
+  <si>
+    <t>계정당 100회</t>
+  </si>
+  <si>
     <t>시원한 여름! 출석체크 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계정당 1회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체서버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아이스크림[이벤트]</t>
   </si>
   <si>
@@ -150,15 +431,9 @@
     <t xml:space="preserve">빛나는 유피테르의 계약서[1시간][이벤트] </t>
   </si>
   <si>
-    <t>골드 지원 상자[이벤트]</t>
-  </si>
-  <si>
     <t>상급 주문서 상자</t>
   </si>
   <si>
-    <t>시간의 모래 주머니</t>
-  </si>
-  <si>
     <t>상급 서번트 뽑기권[이벤트]</t>
   </si>
   <si>
@@ -181,19 +456,12 @@
   </si>
   <si>
     <t>강화 주문서 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시원한 여름! 미션 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계정당 1회</t>
-  </si>
-  <si>
     <t>시원한 여름! 미션 이벤트 완료</t>
   </si>
   <si>
@@ -201,9 +469,6 @@
   </si>
   <si>
     <t>발레포르 던전 마물 5,000마리 처치</t>
-  </si>
-  <si>
-    <t>일반 포인트 충전석 상자</t>
   </si>
   <si>
     <t>원시 해적의 동굴 마물 5,000마리 처치</t>
@@ -270,10 +535,6 @@
     <t>푸른 산호 상자[이벤트]</t>
   </si>
   <si>
-    <t>도감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>붉은 산호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,9 +629,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모든 미션 완료</t>
-  </si>
-  <si>
     <t>1주년 [전투 축제] 전장의 보급품</t>
   </si>
   <si>
@@ -471,10 +729,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 축제를 위한 보급품 제작 이벤트</t>
   </si>
   <si>
@@ -487,19 +741,9 @@
     <t>무기 복구 주문서[이벤트]</t>
   </si>
   <si>
-    <t>희귀 변신 확정 뽑기권[이벤트]</t>
-  </si>
-  <si>
     <t>1주년 [전투 축제] 전장의 보급품 100개</t>
   </si>
   <si>
-    <t>계정당 2회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>희귀 서번트 확정 뽑기권[이벤트]</t>
-  </si>
-  <si>
     <t>희귀 매터리얼 확정 상자</t>
   </si>
   <si>
@@ -509,36 +753,18 @@
     <t>1주년 [전투 축제] 전장의 보급품 50개</t>
   </si>
   <si>
-    <t>계정당 3회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상급 변신 뽑기권[11회][이벤트]</t>
   </si>
   <si>
-    <t>계정당 5회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상급 서번트 뽑기권[11회][이벤트]</t>
   </si>
   <si>
     <t>1주년 [전투 축제] 전장의 보급품 25개</t>
   </si>
   <si>
-    <t>계정당 10회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전리품 상자 제작서[이벤트]</t>
   </si>
   <si>
-    <t>빛나는 유피테르 사냥 계약서[1시간][이벤트]</t>
-  </si>
-  <si>
-    <t>빛나는 유피테르 성장 계약서[1시간][이벤트]</t>
-  </si>
-  <si>
     <t>봉인된 영혼석[희귀]</t>
   </si>
   <si>
@@ -548,29 +774,13 @@
     <t>1주년 [전투 축제] 전장의 보급품 10개</t>
   </si>
   <si>
-    <t>계정당 20회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마나에 물든 파피루스</t>
   </si>
   <si>
-    <t>상급 회복의 마법 주문서</t>
-  </si>
-  <si>
     <t>1주년 [전투 축제] 전장의 보급품 1개</t>
   </si>
   <si>
     <t>제한 없음</t>
-  </si>
-  <si>
-    <t>상급 전투의 마법 주문서</t>
-  </si>
-  <si>
-    <t>상급 아드레날린 증폭 포션</t>
-  </si>
-  <si>
-    <t>경험치 증폭제[20%]</t>
   </si>
   <si>
     <t>힘</t>
@@ -704,9 +914,6 @@
     <t>서번트 포인트 충전석[고급]</t>
   </si>
   <si>
-    <t>일일 미션 50회 완료</t>
-  </si>
-  <si>
     <t>각성한 영웅의 레벨 달성 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -765,15 +972,6 @@
     <t>각성한 영웅 도감 Ⅱ</t>
   </si>
   <si>
-    <t>물리 피해 감소(근접)</t>
-  </si>
-  <si>
-    <t>물리 피해 감소(원거리)</t>
-  </si>
-  <si>
-    <t>마법 피해 감소</t>
-  </si>
-  <si>
     <t>단오절 기념 제작 이벤트</t>
   </si>
   <si>
@@ -801,28 +999,16 @@
     <t>용선 10개</t>
   </si>
   <si>
-    <t>계정당 10회</t>
-  </si>
-  <si>
     <t>명예 코인 상자 10개</t>
   </si>
   <si>
-    <t>계정당 3회</t>
-  </si>
-  <si>
     <t>로얄 코인 상자 10개</t>
   </si>
   <si>
     <t>길드 코인 상자 10개</t>
   </si>
   <si>
-    <t>상급 회복의 마법 주문서 1개</t>
-  </si>
-  <si>
     <t>용선 2개</t>
-  </si>
-  <si>
-    <t>상급 전투의 마법 주문서 1개</t>
   </si>
   <si>
     <t>통합 길드전 오픈 기념 출석체크 이벤트</t>
@@ -1076,13 +1262,7 @@
     <t>3,030,303 골드 소모</t>
   </si>
   <si>
-    <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
-  </si>
-  <si>
     <t>서번트 소환의 돌 30회 소모</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상급 서번트 뽑기권[이벤트] </t>
   </si>
   <si>
     <t>변신 합성 20회 시도</t>
@@ -1110,9 +1290,6 @@
     <t>계정당 30회</t>
   </si>
   <si>
-    <t>상급 아드레날린 증폭 포션 1개</t>
-  </si>
-  <si>
     <t>제한없음</t>
   </si>
   <si>
@@ -1184,10 +1361,6 @@
     <t>행운의 씨앗 매터리얼 상자[이벤트][귀속]</t>
   </si>
   <si>
-    <t>드랍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>벚꽃 맞이 드랍 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1223,9 +1396,6 @@
     <t>상급 아드레날린 증폭 포션[이벤트] 1개</t>
   </si>
   <si>
-    <t>계정당 100회</t>
-  </si>
-  <si>
     <t>벚꽃 잎[이벤트] x5</t>
   </si>
   <si>
@@ -1238,9 +1408,6 @@
     <t>상급 변신 뽑기권[11회][이벤트] 1개</t>
   </si>
   <si>
-    <t>계정당 4회</t>
-  </si>
-  <si>
     <t>상급 서번트 뽑기권[11회][이벤트] 1개</t>
   </si>
   <si>
@@ -1250,15 +1417,6 @@
     <t>경험치 획득량</t>
   </si>
   <si>
-    <t>힘</t>
-  </si>
-  <si>
-    <t>민첩</t>
-  </si>
-  <si>
-    <t>지능</t>
-  </si>
-  <si>
     <t>물리 피해 감소</t>
   </si>
   <si>
@@ -1274,188 +1432,95 @@
     <t>마법 방어력</t>
   </si>
   <si>
-    <t>이름 모를 영웅의 영혼을 찾아라 출석체크 이벤트</t>
+    <t>가을가을한 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>축복받은 장신구 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>축복받은 방어구 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>축복받은 무기 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>가을가을 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>가을가을한 미션 이벤트</t>
+  </si>
+  <si>
+    <t>아무 마물 몬스터 101,700마리 처치</t>
+  </si>
+  <si>
+    <t>체력 회복 포션 1,017개 사용</t>
+  </si>
+  <si>
+    <t>아이템 117회 제작 성공</t>
+  </si>
+  <si>
+    <t>변신 획득 17회</t>
+  </si>
+  <si>
+    <t>서번트 획득 17회</t>
+  </si>
+  <si>
+    <t>일일 미션 90회 수행</t>
+  </si>
+  <si>
+    <t>단풍잎 매터리얼 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>계승자의 의지 물약</t>
+  </si>
+  <si>
+    <t>암흑 사제 사원 오픈 기념 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>랜덤 강화 주문서 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>장인의 영웅 장신구 제작 비급서 조각</t>
+  </si>
+  <si>
+    <t>축복받은 장비 각인석[이벤트]</t>
+  </si>
+  <si>
+    <t>장인의 영웅 방어구 제작 비급서 조각</t>
+  </si>
+  <si>
+    <t>장인의 영웅 무기 제작 비급서 조각</t>
+  </si>
+  <si>
+    <t>암흑 사제 사원 오픈 기념 미션 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>풍등[이벤트]</t>
-  </si>
-  <si>
-    <t>이름 모를 영웅의 영혼[이벤트]</t>
-  </si>
-  <si>
-    <t>상급 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>변신 합성 30회</t>
-  </si>
-  <si>
-    <t>서번트 합성 30회</t>
-  </si>
-  <si>
-    <t>아무 마물 6,000마리 처치</t>
-  </si>
-  <si>
-    <t>시간의 모래 60회 사용</t>
-  </si>
-  <si>
-    <t>골드 20,230,929 소모</t>
-  </si>
-  <si>
-    <t>일일 미션 90회 완료</t>
-  </si>
-  <si>
-    <t>행복한 추석 상자 1[이벤트]</t>
-  </si>
-  <si>
-    <t>행복한 추석 상자 2[이벤트]</t>
-  </si>
-  <si>
-    <t>행복한 추석 상자 3[이벤트]</t>
-  </si>
-  <si>
-    <t>행복한 추석 상자 4[이벤트]</t>
-  </si>
-  <si>
-    <t>행복한 추석 상자 5[이벤트]</t>
-  </si>
-  <si>
-    <t>행복한 추석 상자 6[이벤트]</t>
-  </si>
-  <si>
-    <t>두 번째 중추절 맞이 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 모를 영웅의 영혼을 찾아라 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 150회 획득</t>
-  </si>
-  <si>
-    <t>길드 누적 공헌도 1,000,000 달성</t>
-  </si>
-  <si>
-    <t>시간의 모래 100개 사용</t>
-  </si>
-  <si>
-    <t>아무 몬스터 2,000,000마리 처치</t>
-  </si>
-  <si>
-    <t>주간 미션 60회 완료</t>
-  </si>
-  <si>
-    <t>모든 맵(기네아 제외)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 번째 중추절 맞이 드랍 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍등[이벤트]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 번째 중추절 맞이 제작 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보름달 매터리얼 상자[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>월병[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>특별한 모둠 꼬치구이[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>슬롯 강화 주문서 1개</t>
-  </si>
-  <si>
-    <t>장비 각인석[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>봉인된 영혼석[희귀] 1개</t>
-  </si>
-  <si>
-    <t>계정당 9회</t>
-  </si>
-  <si>
-    <t>풍등[이벤트] 929개</t>
-  </si>
-  <si>
-    <t>풍등[이벤트] 90개</t>
-  </si>
-  <si>
-    <t>풍등[이벤트] 29개</t>
-  </si>
-  <si>
-    <t>풍등[이벤트] 1929개</t>
-  </si>
-  <si>
-    <t>풍등[이벤트] 99개</t>
-  </si>
-  <si>
-    <t>이름모를 영웅의 영혼 제작 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고귀한 영웅의 영혼 1개</t>
-  </si>
-  <si>
-    <t>희귀~영웅 변신 뽑기권[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>희귀~영웅 서번트 뽑기권[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>최상급 변신 뽑기권[11회] 1개</t>
-  </si>
-  <si>
-    <t>최상급 서번트 뽑기권[11회] 1개</t>
-  </si>
-  <si>
-    <t>최상급 매터리얼 상자 1개</t>
-  </si>
-  <si>
-    <t>빛나는 유피테르의 계약서[2시간] 1개</t>
-  </si>
-  <si>
-    <t>콜포트의 축복[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>특별한 비약 상자[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>이름 모를 영웅의 영혼[이벤트] 50개</t>
-  </si>
-  <si>
-    <t>이름 모를 영웅의 영혼[이벤트] 5개</t>
-  </si>
-  <si>
-    <t>이름 모를 영웅의 영혼[이벤트] 2개</t>
-  </si>
-  <si>
-    <t>이름 모를 영웅의 영혼[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>계정당 5회</t>
-  </si>
-  <si>
-    <t>[시즌1]관우의 고귀한 영웅의 영혼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고귀한 영웅의 영혼 (1개)(5000131)</t>
-  </si>
-  <si>
-    <t>최대 소지 무게</t>
+    <t>봉인된 영혼석[영웅]</t>
+  </si>
+  <si>
+    <t>봉인된 영혼석[전설]</t>
+  </si>
+  <si>
+    <t>마나에 물든 상급 파피루스</t>
+  </si>
+  <si>
+    <t>모든 미션 전체 완료</t>
+  </si>
+  <si>
+    <t>아무 몬스터 10,000마리 처치</t>
+  </si>
+  <si>
+    <t>아무 몬스터 15,000마리 처치</t>
+  </si>
+  <si>
+    <t>아무 몬스터 20,000마리 처치</t>
+  </si>
+  <si>
+    <t>변신 60회 합성</t>
+  </si>
+  <si>
+    <t>서번트 60회 합성</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1775,8 +1840,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,8 +1927,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2040,8 +2136,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="백분율 2" xfId="5" xr:uid="{98B67D86-B04C-4176-9AB3-B5846AA634BE}"/>
     <cellStyle name="백분율 2 2" xfId="8" xr:uid="{B631D362-9CE0-40FE-9A0C-75814C42CB07}"/>
     <cellStyle name="백분율 3" xfId="3" xr:uid="{AECD300A-AA17-40A4-8D77-99AD8504D8E0}"/>
@@ -2057,6 +2159,7 @@
     <cellStyle name="표준 2 7" xfId="18" xr:uid="{3633ED46-EEB3-46E0-96E2-03EBDCFE5992}"/>
     <cellStyle name="표준 2 8" xfId="20" xr:uid="{87AA7E21-9AB4-4072-9E27-ECD10C903AA6}"/>
     <cellStyle name="표준 3" xfId="9" xr:uid="{C42FDE84-FDD2-41AF-A27C-DA8814ADDB23}"/>
+    <cellStyle name="표준 3 10" xfId="21" xr:uid="{E44672CC-11D6-4D00-AA2A-6114F55004E1}"/>
     <cellStyle name="표준 4" xfId="10" xr:uid="{A2E836DA-C521-4A74-80B5-98B628A4D65F}"/>
     <cellStyle name="표준 5" xfId="14" xr:uid="{84720495-DE02-48B3-ADF0-40B7AFBF85AC}"/>
     <cellStyle name="표준 6" xfId="15" xr:uid="{E87A5EF5-CF43-432C-9051-37C2207C5D08}"/>
@@ -3306,14 +3409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DAF348-9BCC-4120-BE14-5834226C5CC5}">
-  <dimension ref="A1:X73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F3EEEA-6F40-4697-987D-F8E51BA9936C}">
+  <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D34" sqref="D34"/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I21"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3404,13 +3507,13 @@
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="45">
-        <v>200022</v>
+        <v>200023</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>22</v>
@@ -3419,18 +3522,1476 @@
         <v>23</v>
       </c>
       <c r="G2" s="46">
-        <v>45181</v>
+        <v>45216</v>
       </c>
       <c r="H2" s="46">
-        <v>45209</v>
-      </c>
-      <c r="I2" s="47">
-        <v>210000215</v>
-      </c>
+        <v>45237</v>
+      </c>
+      <c r="I2" s="47"/>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="48">
+        <v>2</v>
+      </c>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="M3" s="45">
+        <v>10</v>
+      </c>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="45">
+        <v>10</v>
+      </c>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="M5" s="48">
+        <v>10</v>
+      </c>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M6" s="45">
+        <v>5</v>
+      </c>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="M7" s="48">
+        <v>10</v>
+      </c>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="45">
+        <v>4</v>
+      </c>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="48">
+        <v>10</v>
+      </c>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="45">
+        <v>10</v>
+      </c>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47" t="s">
         <v>27</v>
+      </c>
+      <c r="M11" s="47">
+        <v>10</v>
+      </c>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="47">
+        <v>3</v>
+      </c>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="47">
+        <v>3</v>
+      </c>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="M14" s="48">
+        <v>5</v>
+      </c>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="M15" s="45">
+        <v>5</v>
+      </c>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="M16" s="45">
+        <v>5</v>
+      </c>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="M17" s="48">
+        <v>1</v>
+      </c>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+    </row>
+    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="49">
+        <v>202027</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="51">
+        <v>45216</v>
+      </c>
+      <c r="H18" s="51">
+        <v>45237</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="53">
+        <v>212000183</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="M18" s="49">
+        <v>1</v>
+      </c>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+    </row>
+    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="K19" s="53">
+        <v>212000184</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="M19" s="49">
+        <v>10</v>
+      </c>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+    </row>
+    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="K20" s="53">
+        <v>212000185</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="M20" s="49">
+        <v>10</v>
+      </c>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+    </row>
+    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="K21" s="53">
+        <v>212000186</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="49">
+        <v>10</v>
+      </c>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="K22" s="53">
+        <v>212000187</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="49">
+        <v>8</v>
+      </c>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="K23" s="53">
+        <v>212000188</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="49">
+        <v>8</v>
+      </c>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+    </row>
+    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="K24" s="53">
+        <v>212000189</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="49">
+        <v>10</v>
+      </c>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="49">
+        <v>200024</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="51">
+        <v>45230</v>
+      </c>
+      <c r="H25" s="51">
+        <v>45244</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="53">
+        <v>212000190</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="49">
+        <v>5</v>
+      </c>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+    </row>
+    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="53">
+        <v>212000191</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="49">
+        <v>5</v>
+      </c>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+    </row>
+    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="53">
+        <v>212000192</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="49">
+        <v>20</v>
+      </c>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+    </row>
+    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="53">
+        <v>212000193</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="49">
+        <v>10</v>
+      </c>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="53">
+        <v>212000194</v>
+      </c>
+      <c r="L29" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="M29" s="49">
+        <v>10</v>
+      </c>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="53">
+        <v>212000195</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="M30" s="49">
+        <v>7</v>
+      </c>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="53">
+        <v>212000196</v>
+      </c>
+      <c r="L31" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="M31" s="49">
+        <v>3</v>
+      </c>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="53">
+        <v>212000197</v>
+      </c>
+      <c r="L32" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="M32" s="49">
+        <v>20</v>
+      </c>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="53">
+        <v>212000198</v>
+      </c>
+      <c r="L33" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="M33" s="49">
+        <v>5</v>
+      </c>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="53">
+        <v>212000199</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="M34" s="49">
+        <v>15</v>
+      </c>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="37"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="53">
+        <v>212000200</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="M35" s="49">
+        <v>20</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="53">
+        <v>212000201</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="M36" s="49">
+        <v>7</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="53">
+        <v>212000202</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M37" s="49">
+        <v>5</v>
+      </c>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="53">
+        <v>212000203</v>
+      </c>
+      <c r="L38" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="49">
+        <v>5</v>
+      </c>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="53">
+        <v>212000204</v>
+      </c>
+      <c r="L39" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M39" s="49">
+        <v>10</v>
+      </c>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="53">
+        <v>212000205</v>
+      </c>
+      <c r="L40" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="M40" s="49">
+        <v>20</v>
+      </c>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+    </row>
+    <row r="41" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="55">
+        <v>202028</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="57">
+        <v>45230</v>
+      </c>
+      <c r="H41" s="58">
+        <v>45251</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" s="55">
+        <v>10</v>
+      </c>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+    </row>
+    <row r="42" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="37"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="M42" s="55">
+        <v>5</v>
+      </c>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+    </row>
+    <row r="43" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="M43" s="55">
+        <v>4</v>
+      </c>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+    </row>
+    <row r="44" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55" t="s">
+        <v>460</v>
+      </c>
+      <c r="M44" s="55">
+        <v>3</v>
+      </c>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+    </row>
+    <row r="45" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="37"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M45" s="55">
+        <v>10</v>
+      </c>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+    </row>
+    <row r="46" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="37"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="M46" s="55">
+        <v>3</v>
+      </c>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+    </row>
+    <row r="47" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" s="55">
+        <v>10</v>
+      </c>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:X1" xr:uid="{11ED1357-92AA-4108-B658-A22B86A94B58}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DAF348-9BCC-4120-BE14-5834226C5CC5}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="40.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.25" style="8" customWidth="1"/>
+    <col min="16" max="16" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.75" style="8" customWidth="1"/>
+    <col min="20" max="20" width="29.375" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="45">
+        <v>200022</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="46">
+        <v>45181</v>
+      </c>
+      <c r="H2" s="46">
+        <v>45209</v>
+      </c>
+      <c r="I2" s="47">
+        <v>210000215</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="M2" s="48">
         <v>10</v>
@@ -3458,7 +5019,7 @@
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
       <c r="L3" s="45" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="M3" s="45">
         <v>3</v>
@@ -3486,7 +5047,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="45" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="M4" s="45">
         <v>3</v>
@@ -3514,7 +5075,7 @@
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
       <c r="L5" s="45" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="M5" s="48">
         <v>3</v>
@@ -3542,7 +5103,7 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="M6" s="45">
         <v>3</v>
@@ -3570,7 +5131,7 @@
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="45" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="M7" s="48">
         <v>3</v>
@@ -3598,7 +5159,7 @@
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
       <c r="L8" s="45" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M8" s="45">
         <v>1</v>
@@ -3626,7 +5187,7 @@
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M9" s="48">
         <v>10</v>
@@ -3654,7 +5215,7 @@
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
       <c r="L10" s="45" t="s">
-        <v>389</v>
+        <v>32</v>
       </c>
       <c r="M10" s="45">
         <v>2</v>
@@ -3682,7 +5243,7 @@
       <c r="J11" s="47"/>
       <c r="K11" s="47"/>
       <c r="L11" s="47" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
       <c r="M11" s="47">
         <v>5</v>
@@ -3710,7 +5271,7 @@
       <c r="J12" s="47"/>
       <c r="K12" s="47"/>
       <c r="L12" s="47" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="M12" s="47">
         <v>3</v>
@@ -3738,7 +5299,7 @@
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
       <c r="L13" s="47" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M13" s="47">
         <v>1</v>
@@ -3766,7 +5327,7 @@
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
       <c r="L14" s="45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M14" s="48">
         <v>5</v>
@@ -3794,7 +5355,7 @@
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
       <c r="L15" s="45" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
       <c r="M15" s="45">
         <v>5</v>
@@ -3822,7 +5383,7 @@
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="M16" s="45">
         <v>3</v>
@@ -3850,7 +5411,7 @@
       <c r="J17" s="45"/>
       <c r="K17" s="45"/>
       <c r="L17" s="45" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="M17" s="48">
         <v>3</v>
@@ -3878,7 +5439,7 @@
       <c r="J18" s="45"/>
       <c r="K18" s="45"/>
       <c r="L18" s="45" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="M18" s="45">
         <v>3</v>
@@ -3906,7 +5467,7 @@
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
       <c r="L19" s="45" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="M19" s="48">
         <v>3</v>
@@ -3934,7 +5495,7 @@
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
       <c r="L20" s="45" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="M20" s="45">
         <v>4</v>
@@ -3962,7 +5523,7 @@
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
       <c r="L21" s="45" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M21" s="48">
         <v>1</v>
@@ -3981,13 +5542,13 @@
         <v>202025</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>402</v>
+        <v>41</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F22" s="50" t="s">
         <v>23</v>
@@ -4002,11 +5563,11 @@
         <v>212000169</v>
       </c>
       <c r="J22" s="49" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K22" s="49"/>
       <c r="L22" s="49" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="M22" s="49">
         <v>40</v>
@@ -4032,11 +5593,11 @@
         <v>212000170</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="K23" s="49"/>
       <c r="L23" s="49" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="M23" s="49">
         <v>1</v>
@@ -4062,11 +5623,11 @@
         <v>212000171</v>
       </c>
       <c r="J24" s="49" t="s">
-        <v>391</v>
+        <v>46</v>
       </c>
       <c r="K24" s="49"/>
       <c r="L24" s="49" t="s">
-        <v>397</v>
+        <v>47</v>
       </c>
       <c r="M24" s="49">
         <v>1</v>
@@ -4092,11 +5653,11 @@
         <v>212000172</v>
       </c>
       <c r="J25" s="49" t="s">
-        <v>392</v>
+        <v>48</v>
       </c>
       <c r="K25" s="49"/>
       <c r="L25" s="49" t="s">
-        <v>398</v>
+        <v>49</v>
       </c>
       <c r="M25" s="49">
         <v>1</v>
@@ -4122,11 +5683,11 @@
         <v>212000173</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>393</v>
+        <v>50</v>
       </c>
       <c r="K26" s="49"/>
       <c r="L26" s="49" t="s">
-        <v>399</v>
+        <v>51</v>
       </c>
       <c r="M26" s="49">
         <v>1</v>
@@ -4152,11 +5713,11 @@
         <v>212000174</v>
       </c>
       <c r="J27" s="49" t="s">
-        <v>394</v>
+        <v>52</v>
       </c>
       <c r="K27" s="49"/>
       <c r="L27" s="49" t="s">
-        <v>400</v>
+        <v>53</v>
       </c>
       <c r="M27" s="49">
         <v>1</v>
@@ -4182,11 +5743,11 @@
         <v>212000175</v>
       </c>
       <c r="J28" s="49" t="s">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49" t="s">
-        <v>401</v>
+        <v>55</v>
       </c>
       <c r="M28" s="49">
         <v>1</v>
@@ -4205,13 +5766,13 @@
         <v>202026</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>403</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>404</v>
+        <v>40</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>56</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F29" s="50" t="s">
         <v>23</v>
@@ -4226,11 +5787,11 @@
         <v>212000176</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K29" s="49"/>
       <c r="L29" s="49" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M29" s="49">
         <v>82</v>
@@ -4247,7 +5808,7 @@
       <c r="A30" s="37"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="49"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="51"/>
@@ -4256,11 +5817,11 @@
         <v>212000177</v>
       </c>
       <c r="J30" s="49" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="K30" s="49"/>
       <c r="L30" s="49" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M30" s="49">
         <v>3</v>
@@ -4286,11 +5847,11 @@
         <v>212000178</v>
       </c>
       <c r="J31" s="49" t="s">
-        <v>405</v>
+        <v>58</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M31" s="49">
         <v>3</v>
@@ -4316,11 +5877,11 @@
         <v>212000179</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>406</v>
+        <v>59</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M32" s="49">
         <v>3</v>
@@ -4346,11 +5907,11 @@
         <v>212000180</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>407</v>
+        <v>60</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M33" s="49">
         <v>3</v>
@@ -4376,11 +5937,11 @@
         <v>212000181</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>408</v>
+        <v>61</v>
       </c>
       <c r="K34" s="49"/>
       <c r="L34" s="49" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M34" s="49">
         <v>3</v>
@@ -4406,11 +5967,11 @@
         <v>212000182</v>
       </c>
       <c r="J35" s="49" t="s">
-        <v>409</v>
+        <v>62</v>
       </c>
       <c r="K35" s="49"/>
       <c r="L35" s="49" t="s">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="M35" s="49">
         <v>3</v>
@@ -4429,10 +5990,10 @@
         <v>240011</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>441</v>
+        <v>64</v>
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="55" t="s">
@@ -4446,11 +6007,11 @@
       </c>
       <c r="I36" s="59"/>
       <c r="J36" s="55" t="s">
-        <v>442</v>
+        <v>65</v>
       </c>
       <c r="K36" s="55"/>
       <c r="L36" s="55" t="s">
-        <v>378</v>
+        <v>66</v>
       </c>
       <c r="M36" s="55">
         <v>3</v>
@@ -4480,7 +6041,7 @@
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
       <c r="L37" s="55" t="s">
-        <v>379</v>
+        <v>67</v>
       </c>
       <c r="M37" s="55">
         <v>3</v>
@@ -4510,7 +6071,7 @@
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
       <c r="L38" s="55" t="s">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="M38" s="55">
         <v>3</v>
@@ -4540,7 +6101,7 @@
       <c r="J39" s="55"/>
       <c r="K39" s="55"/>
       <c r="L39" s="55" t="s">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="M39" s="55">
         <v>3</v>
@@ -4570,7 +6131,7 @@
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="M40" s="55">
         <v>3</v>
@@ -4600,7 +6161,7 @@
       <c r="J41" s="55"/>
       <c r="K41" s="55"/>
       <c r="L41" s="55" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="M41" s="55">
         <v>3</v>
@@ -4630,7 +6191,7 @@
       <c r="J42" s="55"/>
       <c r="K42" s="55"/>
       <c r="L42" s="55" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
       <c r="M42" s="55">
         <v>400</v>
@@ -4653,10 +6214,10 @@
         <v>210010</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
@@ -4670,13 +6231,13 @@
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="26" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="K43" s="26">
         <v>5100000</v>
       </c>
       <c r="L43" s="64" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="M43" s="26">
         <v>1.5</v>
@@ -4699,10 +6260,10 @@
         <v>230009</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17" t="s">
@@ -4718,19 +6279,19 @@
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17" t="s">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="M44" s="17"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
       <c r="P44" s="23" t="s">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="17">
         <v>929000</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
@@ -4752,19 +6313,19 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17" t="s">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
       <c r="P45" s="23" t="s">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="Q45" s="17">
         <v>90000</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>420</v>
+        <v>83</v>
       </c>
       <c r="S45" s="17"/>
       <c r="T45" s="17"/>
@@ -4786,19 +6347,19 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17" t="s">
-        <v>416</v>
+        <v>84</v>
       </c>
       <c r="M46" s="17"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
       <c r="P46" s="23" t="s">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="Q46" s="17">
         <v>90000</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="S46" s="17"/>
       <c r="T46" s="17"/>
@@ -4820,19 +6381,19 @@
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17" t="s">
-        <v>417</v>
+        <v>87</v>
       </c>
       <c r="M47" s="17"/>
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
       <c r="P47" s="23" t="s">
-        <v>424</v>
+        <v>88</v>
       </c>
       <c r="Q47" s="17">
         <v>929000</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
@@ -4854,19 +6415,19 @@
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17" t="s">
-        <v>418</v>
+        <v>89</v>
       </c>
       <c r="M48" s="17"/>
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
       <c r="P48" s="23" t="s">
-        <v>425</v>
+        <v>90</v>
       </c>
       <c r="Q48" s="17">
         <v>90000</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="S48" s="17"/>
       <c r="T48" s="17"/>
@@ -4888,19 +6449,19 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>419</v>
+        <v>92</v>
       </c>
       <c r="M49" s="17"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="23" t="s">
-        <v>425</v>
+        <v>90</v>
       </c>
       <c r="Q49" s="17">
         <v>90000</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
@@ -4922,19 +6483,19 @@
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="M50" s="17"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="23" t="s">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="Q50" s="17">
         <v>9000</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="S50" s="17"/>
       <c r="T50" s="17"/>
@@ -4956,19 +6517,19 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="M51" s="17"/>
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
       <c r="P51" s="23" t="s">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="Q51" s="17">
         <v>9000</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="S51" s="17"/>
       <c r="T51" s="17"/>
@@ -4983,10 +6544,10 @@
         <v>230010</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17" t="s">
@@ -5002,19 +6563,19 @@
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17" t="s">
-        <v>427</v>
+        <v>96</v>
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
       <c r="P52" s="23" t="s">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="Q52" s="17">
         <v>60</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S52" s="17"/>
       <c r="T52" s="17"/>
@@ -5036,19 +6597,19 @@
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17" t="s">
-        <v>428</v>
+        <v>98</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
       <c r="P53" s="23" t="s">
-        <v>437</v>
+        <v>99</v>
       </c>
       <c r="Q53" s="17">
         <v>60</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
@@ -5070,19 +6631,19 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17" t="s">
-        <v>429</v>
+        <v>101</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="23" t="s">
-        <v>437</v>
+        <v>99</v>
       </c>
       <c r="Q54" s="17">
         <v>60</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
@@ -5104,19 +6665,19 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17" t="s">
-        <v>430</v>
+        <v>102</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="23" t="s">
-        <v>438</v>
+        <v>103</v>
       </c>
       <c r="Q55" s="17">
         <v>60</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="S55" s="17"/>
       <c r="T55" s="17"/>
@@ -5138,19 +6699,19 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="23" t="s">
-        <v>438</v>
+        <v>103</v>
       </c>
       <c r="Q56" s="17">
         <v>60</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="S56" s="17"/>
       <c r="T56" s="17"/>
@@ -5172,19 +6733,19 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17" t="s">
-        <v>432</v>
+        <v>106</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
       <c r="P57" s="23" t="s">
-        <v>438</v>
+        <v>103</v>
       </c>
       <c r="Q57" s="17">
         <v>60</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="S57" s="17"/>
       <c r="T57" s="17"/>
@@ -5206,19 +6767,19 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17" t="s">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
       <c r="P58" s="23" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="Q58" s="17">
         <v>60</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="S58" s="17"/>
       <c r="T58" s="17"/>
@@ -5240,19 +6801,19 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17" t="s">
-        <v>434</v>
+        <v>109</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
       <c r="P59" s="23" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="Q59" s="17">
         <v>1</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="S59" s="17"/>
       <c r="T59" s="17"/>
@@ -5274,19 +6835,19 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17" t="s">
-        <v>435</v>
+        <v>110</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
       <c r="P60" s="23" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="Q60" s="17">
         <v>1</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="S60" s="17"/>
       <c r="T60" s="17"/>
@@ -5308,19 +6869,19 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17" t="s">
-        <v>333</v>
+        <v>111</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
       <c r="P61" s="23" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="Q61" s="17">
         <v>1</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="S61" s="17"/>
       <c r="T61" s="17"/>
@@ -5624,12 +7185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905DD849-601B-4B73-A69C-9BBFB9E6B0C5}">
   <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D34" sqref="D34"/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
       <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
@@ -5729,7 +7290,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>22</v>
@@ -5749,7 +7310,7 @@
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="M2" s="48">
         <v>5</v>
@@ -5777,7 +7338,7 @@
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
       <c r="L3" s="45" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M3" s="45">
         <v>2</v>
@@ -5805,7 +7366,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="45" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="M4" s="45">
         <v>2</v>
@@ -5833,7 +7394,7 @@
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
       <c r="L5" s="45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M5" s="48">
         <v>5</v>
@@ -5861,7 +7422,7 @@
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="M6" s="45">
         <v>5</v>
@@ -5889,7 +7450,7 @@
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M7" s="48">
         <v>5</v>
@@ -5917,7 +7478,7 @@
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
       <c r="L8" s="45" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="M8" s="45">
         <v>5</v>
@@ -5945,7 +7506,7 @@
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="M9" s="48">
         <v>5</v>
@@ -5973,7 +7534,7 @@
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
       <c r="L10" s="45" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="M10" s="45">
         <v>3</v>
@@ -6001,7 +7562,7 @@
       <c r="J11" s="47"/>
       <c r="K11" s="47"/>
       <c r="L11" s="47" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="M11" s="47">
         <v>4</v>
@@ -6029,7 +7590,7 @@
       <c r="J12" s="47"/>
       <c r="K12" s="47"/>
       <c r="L12" s="47" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="M12" s="47">
         <v>5</v>
@@ -6057,7 +7618,7 @@
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
       <c r="L13" s="47" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="M13" s="47">
         <v>5</v>
@@ -6079,7 +7640,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>22</v>
@@ -6099,7 +7660,7 @@
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
       <c r="L14" s="45" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="M14" s="48">
         <v>6</v>
@@ -6127,7 +7688,7 @@
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
       <c r="L15" s="45" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M15" s="45">
         <v>6</v>
@@ -6155,7 +7716,7 @@
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="M16" s="45">
         <v>5</v>
@@ -6183,7 +7744,7 @@
       <c r="J17" s="45"/>
       <c r="K17" s="45"/>
       <c r="L17" s="45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M17" s="48">
         <v>5</v>
@@ -6211,7 +7772,7 @@
       <c r="J18" s="45"/>
       <c r="K18" s="45"/>
       <c r="L18" s="45" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="M18" s="45">
         <v>4</v>
@@ -6239,7 +7800,7 @@
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
       <c r="L19" s="45" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="M19" s="48">
         <v>6</v>
@@ -6267,7 +7828,7 @@
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
       <c r="L20" s="45" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M20" s="45">
         <v>6</v>
@@ -6295,7 +7856,7 @@
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
       <c r="L21" s="45" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="M21" s="48">
         <v>5</v>
@@ -6323,7 +7884,7 @@
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M22" s="45">
         <v>5</v>
@@ -6351,7 +7912,7 @@
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
       <c r="L23" s="47" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="M23" s="47">
         <v>4</v>
@@ -6379,7 +7940,7 @@
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
       <c r="L24" s="47" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="M24" s="47">
         <v>5</v>
@@ -6407,7 +7968,7 @@
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
       <c r="L25" s="47" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="M25" s="47">
         <v>5</v>
@@ -6426,13 +7987,13 @@
         <v>202023</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>23</v>
@@ -6447,11 +8008,11 @@
         <v>212000155</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="K26" s="49"/>
       <c r="L26" s="49" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="M26" s="49">
         <v>10</v>
@@ -6481,11 +8042,11 @@
         <v>212000156</v>
       </c>
       <c r="J27" s="49" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="K27" s="49"/>
       <c r="L27" s="49" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M27" s="49">
         <v>10</v>
@@ -6515,11 +8076,11 @@
         <v>212000157</v>
       </c>
       <c r="J28" s="49" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="M28" s="49">
         <v>5</v>
@@ -6549,11 +8110,11 @@
         <v>212000158</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="K29" s="49"/>
       <c r="L29" s="49" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="M29" s="49">
         <v>5</v>
@@ -6583,11 +8144,11 @@
         <v>212000159</v>
       </c>
       <c r="J30" s="49" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="K30" s="49"/>
       <c r="L30" s="49" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M30" s="49">
         <v>3</v>
@@ -6617,11 +8178,11 @@
         <v>212000160</v>
       </c>
       <c r="J31" s="49" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="M31" s="49">
         <v>2</v>
@@ -6651,11 +8212,11 @@
         <v>212000161</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="M32" s="49">
         <v>4</v>
@@ -6678,13 +8239,13 @@
         <v>202024</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F33" s="50" t="s">
         <v>23</v>
@@ -6699,11 +8260,11 @@
         <v>212000162</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="M33" s="49">
         <v>1</v>
@@ -6729,11 +8290,11 @@
         <v>212000163</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="K34" s="49"/>
       <c r="L34" s="49" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="M34" s="49">
         <v>5</v>
@@ -6759,11 +8320,11 @@
         <v>212000164</v>
       </c>
       <c r="J35" s="49" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="K35" s="49"/>
       <c r="L35" s="49" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M35" s="49">
         <v>3</v>
@@ -6789,11 +8350,11 @@
         <v>212000165</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="K36" s="49"/>
       <c r="L36" s="49" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="M36" s="49">
         <v>3</v>
@@ -6819,11 +8380,11 @@
         <v>212000166</v>
       </c>
       <c r="J37" s="49" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="K37" s="49"/>
       <c r="L37" s="49" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="M37" s="49">
         <v>3</v>
@@ -6849,11 +8410,11 @@
         <v>212000167</v>
       </c>
       <c r="J38" s="49" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="K38" s="49"/>
       <c r="L38" s="49" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="M38" s="49">
         <v>2</v>
@@ -6879,11 +8440,11 @@
         <v>212000168</v>
       </c>
       <c r="J39" s="49" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="K39" s="49"/>
       <c r="L39" s="49" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="M39" s="49">
         <v>1</v>
@@ -6902,10 +8463,10 @@
         <v>240009</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="E40" s="55"/>
       <c r="F40" s="55" t="s">
@@ -6919,11 +8480,11 @@
       </c>
       <c r="I40" s="59"/>
       <c r="J40" s="55" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="K40" s="55"/>
       <c r="L40" s="55" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="M40" s="55">
         <v>4</v>
@@ -6953,7 +8514,7 @@
       <c r="J41" s="55"/>
       <c r="K41" s="55"/>
       <c r="L41" s="55" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="M41" s="55">
         <v>4</v>
@@ -6983,7 +8544,7 @@
       <c r="J42" s="55"/>
       <c r="K42" s="55"/>
       <c r="L42" s="55" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="M42" s="55">
         <v>4</v>
@@ -7013,7 +8574,7 @@
       <c r="J43" s="55"/>
       <c r="K43" s="55"/>
       <c r="L43" s="55" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="M43" s="55">
         <v>5</v>
@@ -7042,7 +8603,7 @@
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
       <c r="L44" s="55" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="M44" s="55">
         <v>10</v>
@@ -7065,10 +8626,10 @@
         <v>240010</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="55" t="s">
@@ -7082,11 +8643,11 @@
       </c>
       <c r="I45" s="55"/>
       <c r="J45" s="55" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="K45" s="55"/>
       <c r="L45" s="55" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="M45" s="55">
         <v>200</v>
@@ -7112,7 +8673,7 @@
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
       <c r="L46" s="55" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="M46" s="55">
         <v>2</v>
@@ -7138,7 +8699,7 @@
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
       <c r="L47" s="55" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="M47" s="55">
         <v>2</v>
@@ -7163,7 +8724,7 @@
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
       <c r="L48" s="55" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="M48" s="55">
         <v>2</v>
@@ -7188,7 +8749,7 @@
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
       <c r="L49" s="55" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="M49" s="55">
         <v>5</v>
@@ -8016,15 +9577,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ED1357-92AA-4108-B658-A22B86A94B58}">
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D34" sqref="D34"/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
-      <selection pane="bottomRight" activeCell="L59" sqref="A23:L59"/>
+      <selection pane="bottomRight" activeCell="O62" sqref="A62:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8123,7 +9684,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>22</v>
@@ -8143,7 +9704,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="M2" s="6">
         <v>1</v>
@@ -8173,7 +9734,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="M3" s="5">
         <v>3650000</v>
@@ -8203,7 +9764,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="M4" s="5">
         <v>1</v>
@@ -8233,7 +9794,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="M5" s="6">
         <v>36500</v>
@@ -8263,7 +9824,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
@@ -8293,7 +9854,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="M7" s="6">
         <v>36500</v>
@@ -8323,7 +9884,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -8353,7 +9914,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="M9" s="6">
         <v>36500</v>
@@ -8383,7 +9944,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
@@ -8413,7 +9974,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8443,7 +10004,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -8473,7 +10034,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -8503,7 +10064,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8533,7 +10094,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -8554,13 +10115,13 @@
         <v>202021</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>23</v>
@@ -8575,11 +10136,11 @@
         <v>212000141</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="36" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="M16" s="36">
         <v>40</v>
@@ -8591,7 +10152,7 @@
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
@@ -8613,11 +10174,11 @@
         <v>212000142</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="36" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="M17" s="36">
         <v>10</v>
@@ -8629,7 +10190,7 @@
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -8651,11 +10212,11 @@
         <v>212000143</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="36" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="M18" s="36">
         <v>10</v>
@@ -8667,7 +10228,7 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
@@ -8689,11 +10250,11 @@
         <v>212000144</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="36" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="M19" s="36">
         <v>10</v>
@@ -8705,7 +10266,7 @@
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -8727,11 +10288,11 @@
         <v>212000145</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="36" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="M20" s="36">
         <v>10</v>
@@ -8743,7 +10304,7 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
@@ -8765,11 +10326,11 @@
         <v>212000146</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="36" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="M21" s="36">
         <v>10</v>
@@ -8781,7 +10342,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -8803,11 +10364,11 @@
         <v>212000147</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="36" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="M22" s="36">
         <v>10</v>
@@ -8819,7 +10380,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
@@ -8847,7 +10408,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
@@ -8875,7 +10436,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
@@ -8903,7 +10464,7 @@
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
@@ -8931,7 +10492,7 @@
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
@@ -8959,7 +10520,7 @@
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
@@ -8987,7 +10548,7 @@
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
@@ -9015,7 +10576,7 @@
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
@@ -9043,7 +10604,7 @@
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
@@ -9058,13 +10619,13 @@
         <v>202022</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>23</v>
@@ -9079,11 +10640,11 @@
         <v>212000148</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -9111,11 +10672,11 @@
         <v>212000149</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9143,11 +10704,11 @@
         <v>212000150</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -9175,11 +10736,11 @@
         <v>212000151</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -9207,11 +10768,11 @@
         <v>212000152</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -9239,11 +10800,11 @@
         <v>212000153</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -9271,11 +10832,11 @@
         <v>212000154</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -9317,10 +10878,10 @@
         <v>6000008</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17" t="s">
@@ -9336,7 +10897,7 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="M39" s="17">
         <v>10</v>
@@ -9368,7 +10929,7 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="M40" s="17">
         <v>365</v>
@@ -9400,7 +10961,7 @@
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="M41" s="17">
         <v>2</v>
@@ -9432,7 +10993,7 @@
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="M42" s="17">
         <v>2</v>
@@ -9532,10 +11093,10 @@
         <v>6000009</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -9551,7 +11112,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="M46" s="7">
         <v>5</v>
@@ -9579,7 +11140,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="M47" s="7">
         <v>365</v>
@@ -9607,7 +11168,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -9670,10 +11231,10 @@
         <v>230006</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17" t="s">
@@ -9689,13 +11250,13 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="M51" s="17"/>
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
       <c r="P51" s="23" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="Q51" s="17">
         <v>1000000</v>
@@ -9704,9 +11265,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="17"/>
-      <c r="T51" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="T51" s="17"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
@@ -9727,13 +11286,13 @@
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
       <c r="P52" s="23" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="Q52" s="17">
         <v>1000000</v>
@@ -9742,9 +11301,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="17"/>
-      <c r="T52" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="T52" s="17"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
@@ -9765,13 +11322,13 @@
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
       <c r="P53" s="23" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="Q53" s="17">
         <v>365</v>
@@ -9780,9 +11337,7 @@
         <v>2</v>
       </c>
       <c r="S53" s="17"/>
-      <c r="T53" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="T53" s="17"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
@@ -9803,13 +11358,13 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="23" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="Q54" s="17">
         <v>365</v>
@@ -9818,9 +11373,7 @@
         <v>2</v>
       </c>
       <c r="S54" s="17"/>
-      <c r="T54" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="T54" s="17"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
@@ -9841,13 +11394,13 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="23" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="Q55" s="17">
         <v>365</v>
@@ -9856,9 +11409,7 @@
         <v>2</v>
       </c>
       <c r="S55" s="17"/>
-      <c r="T55" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="T55" s="17"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
@@ -9879,13 +11430,13 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="23" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="Q56" s="17">
         <v>365</v>
@@ -9894,9 +11445,7 @@
         <v>3</v>
       </c>
       <c r="S56" s="17"/>
-      <c r="T56" s="17" t="s">
-        <v>140</v>
-      </c>
+      <c r="T56" s="17"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
       <c r="W56" s="21"/>
@@ -9917,13 +11466,13 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
       <c r="P57" s="23" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="Q57" s="17">
         <v>365</v>
@@ -9932,9 +11481,7 @@
         <v>5</v>
       </c>
       <c r="S57" s="17"/>
-      <c r="T57" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="T57" s="17"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
       <c r="W57" s="21"/>
@@ -9955,13 +11502,13 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
       <c r="P58" s="23" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="Q58" s="17">
         <v>365</v>
@@ -9970,9 +11517,7 @@
         <v>5</v>
       </c>
       <c r="S58" s="17"/>
-      <c r="T58" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="T58" s="17"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
       <c r="W58" s="21"/>
@@ -9993,13 +11538,13 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
       <c r="P59" s="23" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="Q59" s="17">
         <v>365</v>
@@ -10008,9 +11553,7 @@
         <v>10</v>
       </c>
       <c r="S59" s="17"/>
-      <c r="T59" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="T59" s="17"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
       <c r="W59" s="21"/>
@@ -10031,13 +11574,13 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
       <c r="P60" s="23" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="Q60" s="17">
         <v>365</v>
@@ -10046,9 +11589,7 @@
         <v>10</v>
       </c>
       <c r="S60" s="17"/>
-      <c r="T60" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="T60" s="17"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
       <c r="W60" s="21"/>
@@ -10069,13 +11610,13 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
       <c r="P61" s="23" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="Q61" s="17">
         <v>365</v>
@@ -10084,9 +11625,7 @@
         <v>10</v>
       </c>
       <c r="S61" s="17"/>
-      <c r="T61" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="T61" s="17"/>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
       <c r="W61" s="21"/>
@@ -10107,13 +11646,13 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
       <c r="P62" s="23" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="Q62" s="17">
         <v>365</v>
@@ -10122,9 +11661,7 @@
         <v>10</v>
       </c>
       <c r="S62" s="17"/>
-      <c r="T62" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="T62" s="17"/>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
       <c r="W62" s="21"/>
@@ -10145,13 +11682,13 @@
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
       <c r="L63" s="17" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
       <c r="P63" s="23" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="Q63" s="17">
         <v>365</v>
@@ -10160,9 +11697,7 @@
         <v>10</v>
       </c>
       <c r="S63" s="17"/>
-      <c r="T63" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="T63" s="17"/>
       <c r="U63" s="21"/>
       <c r="V63" s="21"/>
       <c r="W63" s="21"/>
@@ -10183,13 +11718,13 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
       <c r="L64" s="17" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M64" s="17"/>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
       <c r="P64" s="23" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="Q64" s="17">
         <v>365</v>
@@ -10198,9 +11733,7 @@
         <v>10</v>
       </c>
       <c r="S64" s="17"/>
-      <c r="T64" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="T64" s="17"/>
       <c r="U64" s="21"/>
       <c r="V64" s="21"/>
       <c r="W64" s="21"/>
@@ -10221,13 +11754,13 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
       <c r="L65" s="17" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="M65" s="17"/>
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
       <c r="P65" s="23" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="Q65" s="17">
         <v>365</v>
@@ -10236,9 +11769,7 @@
         <v>20</v>
       </c>
       <c r="S65" s="17"/>
-      <c r="T65" s="17" t="s">
-        <v>152</v>
-      </c>
+      <c r="T65" s="17"/>
       <c r="U65" s="21"/>
       <c r="V65" s="21"/>
       <c r="W65" s="21"/>
@@ -10259,13 +11790,13 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
       <c r="L66" s="17" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="M66" s="17"/>
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
       <c r="P66" s="23" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="Q66" s="17">
         <v>365</v>
@@ -10274,9 +11805,7 @@
         <v>20</v>
       </c>
       <c r="S66" s="17"/>
-      <c r="T66" s="17" t="s">
-        <v>152</v>
-      </c>
+      <c r="T66" s="17"/>
       <c r="U66" s="21"/>
       <c r="V66" s="21"/>
       <c r="W66" s="21"/>
@@ -10297,24 +11826,22 @@
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="17" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="M67" s="17"/>
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
       <c r="P67" s="23" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="Q67" s="17">
         <v>1</v>
       </c>
       <c r="R67" s="63" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="S67" s="17"/>
-      <c r="T67" s="17" t="s">
-        <v>156</v>
-      </c>
+      <c r="T67" s="17"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
       <c r="W67" s="21"/>
@@ -10335,24 +11862,22 @@
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="M68" s="17"/>
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
       <c r="P68" s="23" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="Q68" s="17">
         <v>1</v>
       </c>
       <c r="R68" s="63" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="S68" s="17"/>
-      <c r="T68" s="17" t="s">
-        <v>156</v>
-      </c>
+      <c r="T68" s="17"/>
       <c r="U68" s="21"/>
       <c r="V68" s="21"/>
       <c r="W68" s="21"/>
@@ -10373,24 +11898,22 @@
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="M69" s="17"/>
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
       <c r="P69" s="23" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="Q69" s="17">
         <v>1</v>
       </c>
       <c r="R69" s="63" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="S69" s="17"/>
-      <c r="T69" s="17" t="s">
-        <v>156</v>
-      </c>
+      <c r="T69" s="17"/>
       <c r="U69" s="21"/>
       <c r="V69" s="21"/>
       <c r="W69" s="21"/>
@@ -10411,24 +11934,22 @@
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
       <c r="P70" s="23" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="Q70" s="17">
         <v>1</v>
       </c>
       <c r="R70" s="63" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="S70" s="17"/>
-      <c r="T70" s="17" t="s">
-        <v>156</v>
-      </c>
+      <c r="T70" s="17"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="37">
@@ -10438,10 +11959,10 @@
         <v>6000007</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
@@ -10457,7 +11978,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -10485,7 +12006,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -10513,7 +12034,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="M73" s="7">
         <v>1</v>
@@ -10759,7 +12280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE16723-2B1C-4B26-A9AF-081275E5AC4F}">
   <dimension ref="A1:X62"/>
   <sheetViews>
@@ -10852,7 +12373,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10863,10 +12384,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -10883,7 +12404,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="M2" s="6">
         <v>10</v>
@@ -10910,7 +12431,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="M3" s="5">
         <v>5</v>
@@ -10937,7 +12458,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M4" s="5">
         <v>4</v>
@@ -10964,7 +12485,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="M5" s="5">
         <v>5</v>
@@ -10991,7 +12512,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M6" s="5">
         <v>5</v>
@@ -11018,7 +12539,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M7" s="5">
         <v>4</v>
@@ -11045,7 +12566,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -11072,7 +12593,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="M9" s="5">
         <v>3</v>
@@ -11099,7 +12620,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M10" s="5">
         <v>4</v>
@@ -11126,7 +12647,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -11150,10 +12671,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>23</v>
@@ -11170,7 +12691,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="33" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="M12" s="33">
         <v>1</v>
@@ -11182,7 +12703,7 @@
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -11206,7 +12727,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="33" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="M13" s="33">
         <v>5</v>
@@ -11218,7 +12739,7 @@
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -11242,7 +12763,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="33" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="M14" s="33">
         <v>11</v>
@@ -11254,7 +12775,7 @@
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
@@ -11278,7 +12799,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M15" s="33">
         <v>5</v>
@@ -11290,7 +12811,7 @@
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -11314,7 +12835,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="33" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="M16" s="33">
         <v>11</v>
@@ -11326,7 +12847,7 @@
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
@@ -11350,7 +12871,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="33" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="M17" s="33">
         <v>11</v>
@@ -11362,7 +12883,7 @@
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -11386,7 +12907,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="33" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="M18" s="33">
         <v>10</v>
@@ -11398,7 +12919,7 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
@@ -11422,7 +12943,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="33" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="M19" s="33">
         <v>1</v>
@@ -11434,7 +12955,7 @@
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -11458,7 +12979,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="33" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="M20" s="33">
         <v>5</v>
@@ -11470,7 +12991,7 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
@@ -11494,7 +13015,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="33" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="M21" s="33">
         <v>11</v>
@@ -11506,7 +13027,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -11530,7 +13051,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="33" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="M22" s="33">
         <v>3</v>
@@ -11542,7 +13063,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
@@ -11566,7 +13087,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="33" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="M23" s="33">
         <v>11</v>
@@ -11578,7 +13099,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
@@ -11602,7 +13123,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="33" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="M24" s="33">
         <v>11</v>
@@ -11614,7 +13135,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
@@ -11638,7 +13159,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="33" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="M25" s="33">
         <v>1</v>
@@ -11650,7 +13171,7 @@
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
@@ -11674,7 +13195,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="33" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="M26" s="33">
         <v>4</v>
@@ -11686,7 +13207,7 @@
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="35" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
@@ -11698,13 +13219,13 @@
         <v>202019</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>23</v>
@@ -11719,11 +13240,11 @@
         <v>212000127</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M27" s="7">
         <v>62</v>
@@ -11748,11 +13269,11 @@
         <v>212000128</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -11777,11 +13298,11 @@
         <v>212000129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -11806,11 +13327,11 @@
         <v>212000130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -11835,11 +13356,11 @@
         <v>212000131</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -11864,11 +13385,11 @@
         <v>212000132</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>62</v>
@@ -11893,11 +13414,11 @@
         <v>212000133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -11915,13 +13436,13 @@
         <v>202020</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>23</v>
@@ -11936,11 +13457,11 @@
         <v>212000134</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="M34" s="17">
         <v>1</v>
@@ -11969,11 +13490,11 @@
         <v>212000135</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="M35" s="17">
         <v>3</v>
@@ -12002,11 +13523,11 @@
         <v>212000136</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="17" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="M36" s="17">
         <v>3</v>
@@ -12035,11 +13556,11 @@
         <v>212000137</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="M37" s="17">
         <v>3</v>
@@ -12068,11 +13589,11 @@
         <v>212000138</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="K38" s="17"/>
       <c r="L38" s="17" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="M38" s="17">
         <v>3</v>
@@ -12101,11 +13622,11 @@
         <v>212000139</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="M39" s="17">
         <v>2</v>
@@ -12134,11 +13655,11 @@
         <v>212000140</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="M40" s="17">
         <v>1</v>
@@ -12160,13 +13681,13 @@
         <v>201006</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>23</v>
@@ -12179,11 +13700,11 @@
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -12206,11 +13727,11 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -12233,11 +13754,11 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -12260,11 +13781,11 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -12287,11 +13808,11 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -12309,14 +13830,14 @@
         <v>330018</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="G46" s="20">
         <v>45090</v>
@@ -12328,7 +13849,7 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="M46" s="17">
         <v>4</v>
@@ -12357,7 +13878,7 @@
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="M47" s="17">
         <v>4</v>
@@ -12386,7 +13907,7 @@
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="M48" s="17">
         <v>4</v>
@@ -12415,7 +13936,7 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="M49" s="17">
         <v>100</v>
@@ -12437,14 +13958,14 @@
         <v>330019</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="G50" s="10">
         <v>45090</v>
@@ -12456,7 +13977,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7" t="s">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -12481,7 +14002,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -12506,7 +14027,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="M52" s="7">
         <v>4</v>
@@ -12531,7 +14052,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="M53" s="7">
         <v>100</v>
@@ -12549,10 +14070,10 @@
         <v>230006</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17" t="s">
@@ -12568,23 +14089,23 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="23" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="Q54" s="17">
         <v>620000</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S54" s="17"/>
       <c r="T54" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
@@ -12603,23 +14124,23 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="23" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="Q55" s="17">
         <v>620000</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="S55" s="17"/>
       <c r="T55" s="17" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
@@ -12638,23 +14159,23 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="23" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="Q56" s="17">
         <v>620000</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="S56" s="17"/>
       <c r="T56" s="17" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
@@ -12673,23 +14194,23 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
       <c r="P57" s="23" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="Q57" s="17">
         <v>60000</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="S57" s="17"/>
       <c r="T57" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
@@ -12708,23 +14229,23 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
       <c r="P58" s="23" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="Q58" s="17">
         <v>60000</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="S58" s="17"/>
       <c r="T58" s="17" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
@@ -12743,23 +14264,23 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
       <c r="P59" s="23" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="Q59" s="17">
         <v>60000</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="S59" s="17"/>
       <c r="T59" s="17" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
@@ -12778,23 +14299,23 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="25"/>
       <c r="O60" s="25"/>
       <c r="P60" s="23" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="Q60" s="17">
         <v>60000</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="S60" s="17"/>
       <c r="T60" s="17" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
@@ -12813,23 +14334,23 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
       <c r="P61" s="23" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="Q61" s="17">
         <v>30000</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="S61" s="17"/>
       <c r="T61" s="17" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
@@ -12848,23 +14369,23 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
       <c r="P62" s="23" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="Q62" s="17">
         <v>30000</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="S62" s="17"/>
       <c r="T62" s="17" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
@@ -12879,7 +14400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D543B-B92D-41B7-A8E2-CE0700229979}">
   <dimension ref="A1:W48"/>
   <sheetViews>
@@ -12975,10 +14496,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -12990,11 +14511,11 @@
         <v>45076</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
@@ -13014,11 +14535,11 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="5" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="L3" s="5">
         <v>10</v>
@@ -13038,11 +14559,11 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="5" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="L4" s="5">
         <v>1</v>
@@ -13062,11 +14583,11 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="5" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="L5" s="5">
         <v>1</v>
@@ -13086,11 +14607,11 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="5" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="L6" s="5">
         <v>10</v>
@@ -13110,11 +14631,11 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="5" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L7" s="5">
         <v>10</v>
@@ -13134,11 +14655,11 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="5" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -13158,11 +14679,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="5" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="L9" s="5">
         <v>2</v>
@@ -13182,11 +14703,11 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="5" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -13206,11 +14727,11 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="5" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7">
         <v>2</v>
@@ -13229,10 +14750,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>23</v>
@@ -13244,11 +14765,11 @@
         <v>45076</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="L12" s="17">
         <v>3</v>
@@ -13272,11 +14793,11 @@
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="17" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="L13" s="17">
         <v>3</v>
@@ -13300,11 +14821,11 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="17" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="L14" s="17">
         <v>9</v>
@@ -13328,11 +14849,11 @@
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="17" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="L15" s="17">
         <v>9</v>
@@ -13356,11 +14877,11 @@
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L16" s="17">
         <v>9</v>
@@ -13384,11 +14905,11 @@
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="17" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -13412,11 +14933,11 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
       <c r="I18" s="17" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -13440,11 +14961,11 @@
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
       <c r="I19" s="17" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="L19" s="17">
         <v>3</v>
@@ -13468,11 +14989,11 @@
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
       <c r="I20" s="17" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="L20" s="17">
         <v>3</v>
@@ -13496,11 +15017,11 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
       <c r="I21" s="17" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="L21" s="17">
         <v>1</v>
@@ -13520,13 +15041,13 @@
         <v>202017</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>23</v>
@@ -13538,11 +15059,11 @@
         <v>45076</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7">
         <v>12</v>
@@ -13562,11 +15083,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="L23" s="7">
         <v>3</v>
@@ -13586,11 +15107,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="L24" s="7">
         <v>1</v>
@@ -13610,11 +15131,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="L25" s="7">
         <v>1</v>
@@ -13634,11 +15155,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7">
         <v>1</v>
@@ -13658,11 +15179,11 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="L27" s="7">
         <v>3</v>
@@ -13682,11 +15203,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="L28" s="7">
         <v>2</v>
@@ -13702,13 +15223,13 @@
         <v>202018</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>23</v>
@@ -13720,11 +15241,11 @@
         <v>45076</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="L29" s="17">
         <v>6</v>
@@ -13748,11 +15269,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="L30" s="17">
         <v>6</v>
@@ -13776,11 +15297,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="L31" s="17">
         <v>3</v>
@@ -13804,11 +15325,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="L32" s="17">
         <v>3</v>
@@ -13832,11 +15353,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="L33" s="17">
         <v>3</v>
@@ -13860,11 +15381,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="L34" s="17">
         <v>3</v>
@@ -13888,11 +15409,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="L35" s="17">
         <v>3</v>
@@ -13912,10 +15433,10 @@
         <v>240004</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -13930,13 +15451,13 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="L36" s="7">
         <v>1</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
@@ -13944,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
@@ -13960,13 +15481,13 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="L37" s="7">
         <v>1</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="N37" s="30"/>
       <c r="O37" s="30"/>
@@ -13974,7 +15495,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -13990,13 +15511,13 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="L38" s="7">
         <v>1</v>
       </c>
       <c r="M38" s="30" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="N38" s="30"/>
       <c r="O38" s="30"/>
@@ -14004,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
@@ -14020,13 +15541,13 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="L39" s="7">
         <v>5</v>
       </c>
       <c r="M39" s="30" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="N39" s="30"/>
       <c r="O39" s="30"/>
@@ -14034,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
@@ -14050,13 +15571,13 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="L40" s="7">
         <v>1</v>
       </c>
       <c r="M40" s="30" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
@@ -14064,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -14080,13 +15601,13 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="L41" s="7">
         <v>1</v>
       </c>
       <c r="M41" s="30" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="N41" s="30"/>
       <c r="O41" s="30"/>
@@ -14094,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -14247,7 +15768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80965D8C-95CD-4DB4-8273-D31B107E6B71}">
   <dimension ref="A1:W38"/>
   <sheetViews>
@@ -14343,10 +15864,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -14360,7 +15881,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="L2" s="6">
         <v>2</v>
@@ -14382,7 +15903,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
@@ -14404,7 +15925,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="L4" s="5">
         <v>5</v>
@@ -14426,7 +15947,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="L5" s="5">
         <v>10</v>
@@ -14448,7 +15969,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
@@ -14470,7 +15991,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -14492,7 +16013,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -14514,7 +16035,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="L9" s="5">
         <v>1</v>
@@ -14536,7 +16057,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -14558,7 +16079,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
@@ -14577,10 +16098,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>23</v>
@@ -14594,7 +16115,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L12" s="17">
         <v>5</v>
@@ -14620,7 +16141,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="L13" s="17">
         <v>5</v>
@@ -14646,7 +16167,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="L14" s="17">
         <v>10</v>
@@ -14672,7 +16193,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="L15" s="17">
         <v>5</v>
@@ -14698,7 +16219,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="L16" s="17">
         <v>1</v>
@@ -14724,7 +16245,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -14750,7 +16271,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -14776,7 +16297,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="L19" s="17">
         <v>2</v>
@@ -14802,7 +16323,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="L20" s="17">
         <v>2</v>
@@ -14828,7 +16349,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="L21" s="17">
         <v>3</v>
@@ -14848,13 +16369,13 @@
         <v>202015</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>23</v>
@@ -14866,11 +16387,11 @@
         <v>45041</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7">
         <v>5</v>
@@ -14890,11 +16411,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7">
         <v>5</v>
@@ -14914,11 +16435,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="L24" s="7">
         <v>5</v>
@@ -14938,11 +16459,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="L25" s="7">
         <v>5</v>
@@ -14962,11 +16483,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="L26" s="7">
         <v>5</v>
@@ -14986,11 +16507,11 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="L27" s="7">
         <v>5</v>
@@ -15010,11 +16531,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="L28" s="7">
         <v>10</v>
@@ -15030,13 +16551,13 @@
         <v>202016</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>23</v>
@@ -15048,11 +16569,11 @@
         <v>45055</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L29" s="17">
         <v>5</v>
@@ -15076,11 +16597,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
       <c r="L30" s="17">
         <v>1</v>
@@ -15104,11 +16625,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
       <c r="L31" s="17">
         <v>1</v>
@@ -15132,11 +16653,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
       <c r="L32" s="17">
         <v>2</v>
@@ -15160,11 +16681,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
       <c r="L33" s="17">
         <v>2</v>
@@ -15188,11 +16709,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="L34" s="17">
         <v>10</v>
@@ -15216,11 +16737,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="L35" s="17">
         <v>1</v>
@@ -15240,10 +16761,10 @@
         <v>999999</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
@@ -15258,11 +16779,11 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="23" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
@@ -15270,7 +16791,7 @@
         <v>600000</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
@@ -15288,11 +16809,11 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="23" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
@@ -15300,7 +16821,7 @@
         <v>450000</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
@@ -15318,11 +16839,11 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>333</v>
+        <v>111</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="24" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
@@ -15330,7 +16851,7 @@
         <v>20000</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
@@ -15345,7 +16866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6171ED9-16BC-41F2-9289-D648104F9EEF}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15438,10 +16959,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="L2" s="38" t="s">
         <v>23</v>
@@ -15457,7 +16978,7 @@
         <v>910182</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="R2" s="40">
         <v>10</v>
@@ -15483,7 +17004,7 @@
         <v>150</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="R3" s="38">
         <v>5</v>
@@ -15509,7 +17030,7 @@
         <v>910347</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="R4" s="38">
         <v>10</v>
@@ -15535,7 +17056,7 @@
         <v>510202</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="R5" s="38">
         <v>1</v>
@@ -15561,7 +17082,7 @@
         <v>600017</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="R6" s="38">
         <v>5</v>
@@ -15587,7 +17108,7 @@
         <v>910444</v>
       </c>
       <c r="Q7" s="38" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="R7" s="38">
         <v>10</v>
@@ -15613,7 +17134,7 @@
         <v>910445</v>
       </c>
       <c r="Q8" s="38" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="R8" s="38">
         <v>10</v>
@@ -15639,7 +17160,7 @@
         <v>910442</v>
       </c>
       <c r="Q9" s="38" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="R9" s="38">
         <v>40</v>
@@ -15665,7 +17186,7 @@
         <v>910113</v>
       </c>
       <c r="Q10" s="38" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="R10" s="38">
         <v>2</v>
@@ -15691,7 +17212,7 @@
         <v>910510</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="R11" s="33">
         <v>1</v>
@@ -15729,13 +17250,13 @@
         <v>370</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L13" s="38" t="s">
         <v>23</v>
@@ -15747,13 +17268,13 @@
         <v>45029</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="P13" s="7">
         <v>630006</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="R13" s="33">
         <v>1</v>
@@ -15775,13 +17296,13 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="O14" s="33" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7">
         <v>660006</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="R14" s="33">
         <v>1</v>
@@ -15803,13 +17324,13 @@
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
       <c r="O15" s="33" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="P15" s="7">
         <v>910427</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="R15" s="33">
         <v>20</v>
@@ -15831,13 +17352,13 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="O16" s="33" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7">
         <v>910317</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="R16" s="33">
         <v>5</v>
@@ -15859,13 +17380,13 @@
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
       <c r="O17" s="33" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7">
         <v>910357</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="R17" s="33">
         <v>20</v>
@@ -15887,13 +17408,13 @@
       <c r="M18" s="9"/>
       <c r="N18" s="10"/>
       <c r="O18" s="33" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7">
         <v>910477</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="R18" s="33">
         <v>5</v>
@@ -15915,13 +17436,13 @@
       <c r="M19" s="9"/>
       <c r="N19" s="10"/>
       <c r="O19" s="33" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7">
         <v>910513</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="R19" s="33">
         <v>1</v>
@@ -15959,10 +17480,10 @@
         <v>30012</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="33" t="s">
@@ -15975,11 +17496,11 @@
         <v>45043</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="44" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="R21" s="44">
         <v>0.6</v>
@@ -16137,10 +17658,10 @@
         <v>20008</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17" t="s">
@@ -16155,17 +17676,17 @@
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="R29" s="17"/>
       <c r="S29" s="17">
         <v>10000000</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="U29" s="23" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -16183,17 +17704,17 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="R30" s="17"/>
       <c r="S30" s="17">
         <v>10000000</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U30" s="23" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -16211,17 +17732,17 @@
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="R31" s="17"/>
       <c r="S31" s="17">
         <v>10000000</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U31" s="24" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -16239,17 +17760,17 @@
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="R32" s="17"/>
       <c r="S32" s="17">
         <v>100000</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="U32" s="24" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -16267,17 +17788,17 @@
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="R33" s="17"/>
       <c r="S33" s="17">
         <v>100000</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="U33" s="24" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -16295,17 +17816,17 @@
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="R34" s="17"/>
       <c r="S34" s="17">
         <v>100000</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -16323,17 +17844,17 @@
       <c r="O35" s="27"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="27" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R35" s="27"/>
       <c r="S35" s="17">
         <v>10000000</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="U35" s="25" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -16351,17 +17872,17 @@
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="R36" s="27"/>
       <c r="S36" s="17">
         <v>10000000</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -16373,10 +17894,10 @@
         <v>1104</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7" t="s">
@@ -16389,11 +17910,11 @@
         <v>45043</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="P37" s="26"/>
       <c r="Q37" s="26" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="R37" s="26">
         <v>0.1</v>
@@ -16417,7 +17938,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="26" t="s">
-        <v>378</v>
+        <v>66</v>
       </c>
       <c r="R38" s="26">
         <v>3</v>
@@ -16441,7 +17962,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="26" t="s">
-        <v>379</v>
+        <v>67</v>
       </c>
       <c r="R39" s="26">
         <v>3</v>
@@ -16465,7 +17986,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
       <c r="Q40" s="26" t="s">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="R40" s="26">
         <v>3</v>
@@ -16489,7 +18010,7 @@
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
       <c r="Q41" s="26" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="R41" s="26">
         <v>1</v>
@@ -16513,7 +18034,7 @@
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
       <c r="Q42" s="26" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="R42" s="26">
         <v>1</v>
@@ -16531,10 +18052,10 @@
         <v>1105</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17" t="s">
@@ -16547,11 +18068,11 @@
         <v>45043</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="P43" s="27"/>
       <c r="Q43" s="27" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="R43" s="27">
         <v>0.05</v>
@@ -16575,7 +18096,7 @@
       <c r="O44" s="27"/>
       <c r="P44" s="27"/>
       <c r="Q44" s="27" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="R44" s="27">
         <v>3</v>
@@ -16599,7 +18120,7 @@
       <c r="O45" s="27"/>
       <c r="P45" s="27"/>
       <c r="Q45" s="27" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="R45" s="27">
         <v>3</v>
@@ -16623,7 +18144,7 @@
       <c r="O46" s="27"/>
       <c r="P46" s="27"/>
       <c r="Q46" s="27" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="R46" s="27">
         <v>2</v>
@@ -16647,7 +18168,7 @@
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="17" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="R47" s="17">
         <v>2</v>
@@ -16671,7 +18192,7 @@
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="17" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="R48" s="17">
         <v>2</v>
@@ -16694,15 +18215,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="14" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c73faac0d5522cd1062ab959a8e66599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87c65ceb92f45bbb5f0f16055108a0db" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -16931,7 +18443,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7b850dbe-2bbc-4312-b635-0ac631df3b32">
@@ -16942,15 +18454,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7869460D-678B-4B1D-AD3D-A497418AB750}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16969,7 +18482,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14559B0E-74B9-4600-9608-A1B8D3450D34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16978,4 +18491,12 @@
     <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>